--- a/semester A/ergsthrio excel/Αρχείο μαθήματος.xlsx
+++ b/semester A/ergsthrio excel/Αρχείο μαθήματος.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppapa\OneDrive\Υπολογιστής\MSC\semester A\ergsthrio excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BD25DD-9A8D-4D1F-974A-D5174B5D5029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EBF942-4DD7-4848-BCE2-78A4316C3CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vlookup" sheetId="6" r:id="rId1"/>
@@ -1435,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1969,11 +1969,11 @@
         <v>622</v>
       </c>
       <c r="E27" s="10" t="str">
-        <f t="shared" ref="E27:F29" si="1">INDEX($D$2:$F$8,MATCH($D27,$D$2:$D$8,0),MATCH(E$26,$D$1:$F$1,0))</f>
+        <f>INDEX($D$2:$F$8,MATCH($D27,$D$2:$D$8,0),MATCH(E$26,$D$1:$F$1,0))</f>
         <v>Lilly Smith</v>
       </c>
       <c r="F27" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>INDEX($D$2:$F$8,MATCH($D27,$D$2:$D$8,0),MATCH(F$26,$D$1:$F$1,0))</f>
         <v>L.Smith@gmail.com</v>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
         <v>785</v>
       </c>
       <c r="E28" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E28:F29" si="1">INDEX($D$2:$F$8,MATCH($D28,$D$2:$D$8,0),MATCH(E$26,$D$1:$F$1,0))</f>
         <v>Harold Clayton</v>
       </c>
       <c r="F28" s="10" t="str">
@@ -2365,7 +2365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
